--- a/Alondra/Agendar cita/Paciente_Datos.xlsx
+++ b/Alondra/Agendar cita/Paciente_Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani Pardo\Documents\UiPath\RoboticLand-RPA\Alondra\Agendar cita\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FD0616-3C7C-4081-AC25-C5D09E7FD981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ECB4CF-7FE9-4F09-8641-96B89639E7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="50">
   <si>
     <t>Alta/Baja</t>
   </si>
@@ -64,6 +64,9 @@
     <t>laura.martinez@example.com</t>
   </si>
   <si>
+    <t>C/ Mayor 12, Albacete</t>
+  </si>
+  <si>
     <t>Dermatología</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>j.martin.torres47@example.com</t>
   </si>
   <si>
+    <t xml:space="preserve"> Avenida Europa 18, Ciudad Real</t>
+  </si>
+  <si>
     <t>Cardiología</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
   </si>
   <si>
     <t>marta.sanchez.aguilar@example.com</t>
+  </si>
+  <si>
+    <t>Calle Marina 8, 3ºC, 08018 Toledo</t>
   </si>
   <si>
     <t>Traumatología</t>
@@ -123,27 +132,48 @@
     <t>ignacio.torres.delgado@example.com</t>
   </si>
   <si>
-    <t>Endocrinología</t>
-  </si>
-  <si>
-    <t>C/ Mayor 12, Albacete</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Avenida Europa 18, Ciudad Real</t>
-  </si>
-  <si>
-    <t>Calle Marina 8, 3ºC, 08018 Toledo</t>
-  </si>
-  <si>
-    <t>Calle Laguna Verde 42,Guadalajara</t>
-  </si>
-  <si>
     <t xml:space="preserve">Calle Feria 28, Cuenca
 </t>
   </si>
   <si>
+    <t>Endocrinología</t>
+  </si>
+  <si>
     <t xml:space="preserve">Calle Sol, 85, Ciudad Real
 </t>
+  </si>
+  <si>
+    <t>Calle Laguna Verde 42,Guadalajara</t>
+  </si>
+  <si>
+    <t>23456789Y</t>
+  </si>
+  <si>
+    <t>Alondra Fernandez Rodriguez</t>
+  </si>
+  <si>
+    <t>mercedes_alo@hotmail.com</t>
+  </si>
+  <si>
+    <t>Calle Amanecer 59, Albacete</t>
+  </si>
+  <si>
+    <t>74569764V</t>
+  </si>
+  <si>
+    <t>Carmelo Muñoz</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>678098234</t>
+  </si>
+  <si>
+    <t>danny_pm_96@hotmail.com</t>
+  </si>
+  <si>
+    <t>Calle Pepinillo 23, Cuenca</t>
   </si>
 </sst>
 </file>
@@ -158,16 +188,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,28 +218,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
       <font>
+        <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
         <scheme val="minor"/>
@@ -216,6 +251,7 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
         <scheme val="minor"/>
@@ -223,6 +259,7 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
         <scheme val="minor"/>
@@ -230,6 +267,7 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
         <scheme val="minor"/>
@@ -237,6 +275,7 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
         <scheme val="minor"/>
@@ -244,6 +283,7 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
         <scheme val="minor"/>
@@ -251,6 +291,7 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
         <scheme val="minor"/>
@@ -258,6 +299,7 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
         <scheme val="minor"/>
@@ -498,7 +540,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="B3" sqref="B3"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -518,28 +560,28 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -547,69 +589,69 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <v>34</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>600123456</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
         <v>612938440</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -620,43 +662,43 @@
       <c r="F4">
         <v>699774230</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>24</v>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -664,28 +706,28 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -693,77 +735,807 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>29</v>
+      </c>
+      <c r="F9">
+        <v>678543867</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>34</v>
+      </c>
+      <c r="F10">
+        <v>600123456</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>612938440</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <v>699774230</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>29</v>
+      </c>
+      <c r="F17">
+        <v>678543867</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>34</v>
+      </c>
+      <c r="F19">
+        <v>600123456</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>612938440</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>29</v>
+      </c>
+      <c r="F21">
+        <v>699774230</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="G8" t="s">
+      <c r="C23" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s">
         <v>37</v>
       </c>
-      <c r="I8" t="s">
+    </row>
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
         <v>33</v>
       </c>
-    </row>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>29</v>
+      </c>
+      <c r="F26">
+        <v>678543867</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>34</v>
+      </c>
+      <c r="F27">
+        <v>600123456</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>612938440</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>29</v>
+      </c>
+      <c r="F29">
+        <v>699774230</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="65" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F65" s="3"/>
+      <c r="F65" s="1"/>
     </row>
     <row r="145" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F145" s="3"/>
+      <c r="F145" s="1"/>
     </row>
     <row r="625" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F625" s="3"/>
+      <c r="F625" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="G5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>